--- a/Parcial 2/Mis juegos corrida de datos.xlsx
+++ b/Parcial 2/Mis juegos corrida de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositorios\Amerike\6to\Juegos-en-red\Parcial 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A690DB-5EDD-4674-98AC-E6238558E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5A875-7391-4C0E-9B66-FB69A0DCF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="11475" xr2:uid="{5A7C72CC-7E4A-4123-8AAF-F01463B2518D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{5A7C72CC-7E4A-4123-8AAF-F01463B2518D}"/>
   </bookViews>
   <sheets>
     <sheet name="Juegos" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="576">
   <si>
     <t>vidiojuego_id</t>
   </si>
@@ -1731,12 +1731,6 @@
   </si>
   <si>
     <t>Sonic Bros</t>
-  </si>
-  <si>
-    <t>nintendo DS</t>
-  </si>
-  <si>
-    <t>nintendo 3DS</t>
   </si>
   <si>
     <t>Lucas arts</t>
@@ -1902,7 +1896,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1938,6 +1932,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{F7D3A908-7828-47BA-87B5-1C1E8462D7BB}"/>
@@ -2257,7 +2252,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,9 +2262,9 @@
     <col min="3" max="4" width="11.42578125" style="5"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2317,11 +2312,11 @@
       <c r="B2" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>345</v>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>553</v>
@@ -2329,14 +2324,14 @@
       <c r="F2" s="5">
         <v>2007</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>563</v>
       </c>
-      <c r="H2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I2" t="s">
-        <v>574</v>
+      <c r="I2" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2346,11 +2341,11 @@
       <c r="B3" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>345</v>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>557</v>
@@ -2358,14 +2353,14 @@
       <c r="F3" s="5">
         <v>2006</v>
       </c>
-      <c r="G3" t="s">
-        <v>563</v>
+      <c r="G3" s="5">
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>566</v>
-      </c>
-      <c r="I3" t="s">
-        <v>574</v>
+        <v>564</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,11 +2370,11 @@
       <c r="B4" t="s">
         <v>540</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>345</v>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>553</v>
@@ -2387,14 +2382,14 @@
       <c r="F4" s="5">
         <v>2008</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>563</v>
       </c>
-      <c r="H4" t="s">
-        <v>565</v>
-      </c>
-      <c r="I4" t="s">
-        <v>574</v>
+      <c r="I4" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2402,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>345</v>
+        <v>573</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>554</v>
@@ -2416,14 +2411,14 @@
       <c r="F5" s="5">
         <v>2009</v>
       </c>
-      <c r="G5" t="s">
-        <v>563</v>
+      <c r="G5" s="5">
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>567</v>
-      </c>
-      <c r="I5" t="s">
-        <v>574</v>
+        <v>565</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2433,23 +2428,23 @@
       <c r="B6" t="s">
         <v>558</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>346</v>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
       </c>
       <c r="F6" s="5">
         <v>2009</v>
       </c>
-      <c r="G6" t="s">
-        <v>563</v>
+      <c r="G6" s="5">
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>567</v>
-      </c>
-      <c r="I6" t="s">
-        <v>576</v>
+        <v>565</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,11 +2454,11 @@
       <c r="B7" t="s">
         <v>541</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>345</v>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>555</v>
@@ -2471,14 +2466,14 @@
       <c r="F7" s="5">
         <v>2011</v>
       </c>
-      <c r="G7" t="s">
-        <v>564</v>
+      <c r="G7" s="5">
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I7" t="s">
-        <v>574</v>
+        <v>566</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2488,11 +2483,11 @@
       <c r="B8" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>345</v>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>553</v>
@@ -2500,14 +2495,14 @@
       <c r="F8" s="5">
         <v>2009</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>563</v>
       </c>
-      <c r="H8" t="s">
-        <v>565</v>
-      </c>
-      <c r="I8" t="s">
-        <v>574</v>
+      <c r="I8" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2517,11 +2512,11 @@
       <c r="B9" t="s">
         <v>543</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>346</v>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>556</v>
@@ -2529,14 +2524,14 @@
       <c r="F9" s="5">
         <v>2011</v>
       </c>
-      <c r="G9" t="s">
-        <v>564</v>
+      <c r="G9" s="5">
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>569</v>
-      </c>
-      <c r="I9" t="s">
-        <v>574</v>
+        <v>567</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2546,11 +2541,11 @@
       <c r="B10" t="s">
         <v>544</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>345</v>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>561</v>
@@ -2558,14 +2553,14 @@
       <c r="F10" s="5">
         <v>2009</v>
       </c>
-      <c r="G10" t="s">
-        <v>563</v>
+      <c r="G10" s="5">
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
-      </c>
-      <c r="I10" t="s">
-        <v>574</v>
+        <v>568</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2575,11 +2570,11 @@
       <c r="B11" t="s">
         <v>545</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>345</v>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>562</v>
@@ -2587,14 +2582,14 @@
       <c r="F11" s="5">
         <v>2007</v>
       </c>
-      <c r="G11" t="s">
-        <v>563</v>
+      <c r="G11" s="5">
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
-      </c>
-      <c r="I11" t="s">
-        <v>574</v>
+        <v>566</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2604,11 +2599,11 @@
       <c r="B12" t="s">
         <v>546</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>345</v>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>559</v>
@@ -2616,14 +2611,14 @@
       <c r="F12" s="5">
         <v>2007</v>
       </c>
-      <c r="G12" t="s">
-        <v>563</v>
+      <c r="G12" s="5">
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
-      </c>
-      <c r="I12" t="s">
-        <v>574</v>
+        <v>569</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2633,23 +2628,23 @@
       <c r="B13" t="s">
         <v>547</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>346</v>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
       </c>
       <c r="F13" s="5">
         <v>2005</v>
       </c>
-      <c r="G13" t="s">
-        <v>563</v>
+      <c r="G13" s="5">
+        <v>5</v>
       </c>
       <c r="H13" t="s">
+        <v>570</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="I13" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2659,11 +2654,11 @@
       <c r="B14" t="s">
         <v>548</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>345</v>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>557</v>
@@ -2671,14 +2666,14 @@
       <c r="F14" s="5">
         <v>2005</v>
       </c>
-      <c r="G14" t="s">
-        <v>563</v>
+      <c r="G14" s="5">
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
-      </c>
-      <c r="I14" t="s">
-        <v>574</v>
+        <v>564</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,11 +2683,11 @@
       <c r="B15" t="s">
         <v>549</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>345</v>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>556</v>
@@ -2700,14 +2695,14 @@
       <c r="F15" s="5">
         <v>2007</v>
       </c>
-      <c r="G15" t="s">
-        <v>563</v>
+      <c r="G15" s="5">
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
-      </c>
-      <c r="I15" t="s">
-        <v>574</v>
+        <v>567</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,11 +2712,11 @@
       <c r="B16" t="s">
         <v>550</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>345</v>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>556</v>
@@ -2729,14 +2724,14 @@
       <c r="F16" s="5">
         <v>2007</v>
       </c>
-      <c r="G16" t="s">
-        <v>563</v>
+      <c r="G16" s="5">
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
-      </c>
-      <c r="I16" t="s">
-        <v>574</v>
+        <v>567</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2746,11 +2741,11 @@
       <c r="B17" t="s">
         <v>551</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>345</v>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>560</v>
@@ -2758,14 +2753,14 @@
       <c r="F17" s="5">
         <v>2008</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
         <v>563</v>
       </c>
-      <c r="H17" t="s">
-        <v>565</v>
-      </c>
-      <c r="I17" t="s">
-        <v>577</v>
+      <c r="I17" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2775,11 +2770,11 @@
       <c r="B18" t="s">
         <v>552</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>345</v>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>553</v>
@@ -2787,14 +2782,14 @@
       <c r="F18" s="5">
         <v>2009</v>
       </c>
-      <c r="G18" t="s">
-        <v>563</v>
+      <c r="G18" s="5">
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
-      </c>
-      <c r="I18" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C580F38-B665-4EE7-9FB6-8FF7DDED2039}">
   <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3379,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3408,7 +3403,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3424,7 +3419,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3456,15 +3451,16 @@
         <v>419</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3480,7 +3476,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
